--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C04F75-8C2C-4B47-9E5C-0677B12489B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943EEE4D-044D-4B25-A2AB-B5017C14E156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -2157,8 +2157,8 @@
   </sheetPr>
   <dimension ref="A2:P139"/>
   <sheetViews>
-    <sheetView topLeftCell="B94" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="B121" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>329.13</v>
+        <v>330.63</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="J130">
         <f>F136+F137+F138+F139</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K130">
         <f>E136+E138+E137+E139</f>
@@ -4762,8 +4762,10 @@
       <c r="E137" s="13">
         <v>2</v>
       </c>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
+      <c r="F137" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G137" s="7"/>
     </row>
     <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="54" t="s">
@@ -4829,7 +4831,7 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -5797,11 +5799,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6014,27 +6017,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6059,9 +6052,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C04F75-8C2C-4B47-9E5C-0677B12489B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C232838-ABCE-426F-8E28-F6641CAE924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1203,9 +1203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>20580</xdr:colOff>
+      <xdr:colOff>16770</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19568</xdr:rowOff>
+      <xdr:rowOff>15758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1266,7 +1266,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16323</xdr:rowOff>
+      <xdr:rowOff>20133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1325,9 +1325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>20579</xdr:colOff>
+      <xdr:colOff>16769</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>16230</xdr:rowOff>
+      <xdr:rowOff>20040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1386,9 +1386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>20579</xdr:colOff>
+      <xdr:colOff>16769</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15465</xdr:rowOff>
+      <xdr:rowOff>19275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1510,7 +1510,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19611</xdr:rowOff>
+      <xdr:rowOff>15801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2157,20 +2157,20 @@
   </sheetPr>
   <dimension ref="A2:P139"/>
   <sheetViews>
-    <sheetView topLeftCell="B94" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2208,11 +2208,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>284.2</v>
+        <v>289.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>329.13</v>
+        <v>331.13</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2221,7 +2221,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2543,7 +2543,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -2943,7 +2943,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4666,11 +4666,23 @@
         <v>179</v>
       </c>
       <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
+      <c r="E131" s="13">
+        <v>5</v>
+      </c>
+      <c r="F131" s="13">
+        <v>2</v>
+      </c>
+      <c r="G131" s="11"/>
       <c r="I131" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="J131">
+        <f>F131+F130</f>
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <f>E131</f>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4829,17 +4841,17 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4902,7 +4914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4925,7 +4937,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5167,7 +5179,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5190,7 +5202,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5213,7 +5225,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5227,7 +5239,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5248,7 +5260,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5263,7 +5275,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5278,7 +5290,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5299,7 +5311,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5314,7 +5326,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5337,7 +5349,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5352,7 +5364,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5375,7 +5387,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5390,7 +5402,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5405,7 +5417,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5428,7 +5440,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5449,7 +5461,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5470,7 +5482,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5491,7 +5503,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5508,7 +5520,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5523,7 +5535,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5546,7 +5558,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5563,7 +5575,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5578,7 +5590,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5599,7 +5611,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5622,7 +5634,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5645,7 +5657,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5668,7 +5680,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5691,7 +5703,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5712,7 +5724,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5727,7 +5739,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5797,11 +5809,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6014,27 +6027,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6059,9 +6062,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C232838-ABCE-426F-8E28-F6641CAE924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EEACE0-44A8-4C6D-B0B4-0D30427D209D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="183">
   <si>
     <t>Nombre</t>
   </si>
@@ -1205,7 +1205,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>16770</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>15758</xdr:rowOff>
+      <xdr:rowOff>12583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1510,7 +1510,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>15801</xdr:rowOff>
+      <xdr:rowOff>12626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2155,22 +2155,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P139"/>
+  <dimension ref="A2:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J139" sqref="J139"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B139" sqref="A139:XFD139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.6328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2207,12 +2207,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>289.2</v>
+        <f t="shared" ref="E3:F3" si="0">SUM(E6:E994)</f>
+        <v>285.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>331.13</v>
+        <v>338.63</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2221,7 +2221,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2543,7 +2543,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -2943,7 +2943,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4649,13 +4649,13 @@
       <c r="I130" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J130">
-        <f>F136+F137+F138+F139</f>
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <f>E136+E138+E137+E139</f>
-        <v>30</v>
+      <c r="J130" t="e">
+        <f>F136+F137+F138+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K130" t="e">
+        <f>E136+E138+E137+#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4774,8 +4774,10 @@
       <c r="E137" s="13">
         <v>2</v>
       </c>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
+      <c r="F137" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G137" s="7"/>
     </row>
     <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="54" t="s">
@@ -4790,24 +4792,10 @@
       <c r="E138" s="13">
         <v>4</v>
       </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-    </row>
-    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="13">
-        <v>4</v>
-      </c>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
+      <c r="F138" s="13">
+        <v>6</v>
+      </c>
+      <c r="G138" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4845,13 +4833,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4914,7 +4902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4937,7 +4925,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5179,7 +5167,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5202,7 +5190,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5225,7 +5213,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5239,7 +5227,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5260,7 +5248,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5275,7 +5263,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5290,7 +5278,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5311,7 +5299,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5326,7 +5314,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5349,7 +5337,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5364,7 +5352,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5387,7 +5375,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5402,7 +5390,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5417,7 +5405,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5440,7 +5428,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5461,7 +5449,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5482,7 +5470,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5503,7 +5491,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5520,7 +5508,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5535,7 +5523,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5558,7 +5546,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5575,7 +5563,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5590,7 +5578,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5611,7 +5599,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5634,7 +5622,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5657,7 +5645,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5680,7 +5668,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5703,7 +5691,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5724,7 +5712,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5739,7 +5727,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5809,12 +5797,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6027,17 +6014,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6062,18 +6059,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EEACE0-44A8-4C6D-B0B4-0D30427D209D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7831C0E-5141-4080-840E-68C5C83E4363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="184">
   <si>
     <t>Nombre</t>
   </si>
@@ -615,6 +615,9 @@
   </si>
   <si>
     <t>Interfaz ventana principal</t>
+  </si>
+  <si>
+    <t>Cartel juegos cartas, juegos dados, juegos extra, eventos</t>
   </si>
 </sst>
 </file>
@@ -2155,10 +2158,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P138"/>
+  <dimension ref="A2:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B139" sqref="A139:XFD139"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2215,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>338.63</v>
+        <v>341.63</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -4649,13 +4652,13 @@
       <c r="I130" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J130" t="e">
-        <f>F136+F137+F138+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K130" t="e">
-        <f>E136+E138+E137+#REF!</f>
-        <v>#REF!</v>
+      <c r="J130">
+        <f>F136+F137+F138+F139</f>
+        <v>10.5</v>
+      </c>
+      <c r="K130">
+        <f>E136+E138+E137+E139</f>
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4758,7 +4761,9 @@
       <c r="E136" s="13">
         <v>20</v>
       </c>
-      <c r="F136" s="13"/>
+      <c r="F136" s="13">
+        <v>0</v>
+      </c>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4796,6 +4801,24 @@
         <v>6</v>
       </c>
       <c r="G138" s="11"/>
+    </row>
+    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="13">
+        <v>0</v>
+      </c>
+      <c r="F139" s="13">
+        <v>3</v>
+      </c>
+      <c r="G139" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5797,11 +5820,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6014,27 +6038,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6059,9 +6073,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7831C0E-5141-4080-840E-68C5C83E4363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCA1FC8-C434-4B83-8E2E-CEB6C238678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="0" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1735,7 +1735,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1847,7 +1847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1903,7 +1903,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2160,20 +2160,20 @@
   </sheetPr>
   <dimension ref="A2:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K131" sqref="K131"/>
+    <sheetView tabSelected="1" topLeftCell="D124" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2211,11 +2211,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E994)</f>
-        <v>285.2</v>
+        <v>291.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>341.63</v>
+        <v>354.13</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2224,7 +2224,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2546,7 +2546,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2768,7 +2768,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -2946,7 +2946,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4711,11 +4711,23 @@
         <v>161</v>
       </c>
       <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
+      <c r="E133" s="13">
+        <v>6</v>
+      </c>
+      <c r="F133" s="13">
+        <v>12.5</v>
+      </c>
       <c r="G133" s="13"/>
       <c r="I133" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="J133">
+        <f>F133</f>
+        <v>12.5</v>
+      </c>
+      <c r="K133">
+        <f>E133</f>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4856,13 +4868,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4925,7 +4937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4948,7 +4960,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5190,7 +5202,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5213,7 +5225,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5236,7 +5248,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5250,7 +5262,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5271,7 +5283,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5286,7 +5298,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5301,7 +5313,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5322,7 +5334,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5337,7 +5349,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5360,7 +5372,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5375,7 +5387,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5398,7 +5410,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5413,7 +5425,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5428,7 +5440,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5451,7 +5463,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5472,7 +5484,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5493,7 +5505,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5514,7 +5526,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5531,7 +5543,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5546,7 +5558,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5569,7 +5581,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5586,7 +5598,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5601,7 +5613,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5622,7 +5634,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5645,7 +5657,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5668,7 +5680,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5691,7 +5703,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5714,7 +5726,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5735,7 +5747,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5750,7 +5762,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5820,12 +5832,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6038,17 +6049,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6073,18 +6094,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C232838-ABCE-426F-8E28-F6641CAE924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D510817-E8B0-43DF-9DFF-55017F6FB601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="185">
   <si>
     <t>Nombre</t>
   </si>
@@ -615,6 +615,12 @@
   </si>
   <si>
     <t>Interfaz ventana principal</t>
+  </si>
+  <si>
+    <t>bajo demanda</t>
+  </si>
+  <si>
+    <t>apoyo toolbar</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1738,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1844,7 +1850,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1900,7 +1906,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2155,10 +2161,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P139"/>
+  <dimension ref="A2:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J139" sqref="J139"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2208,17 +2214,17 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>289.2</v>
+        <v>292.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>331.13</v>
+        <v>358.29</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
       <c r="K3" s="65">
-        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73</f>
-        <v>87.5</v>
+        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2267,8 +2273,8 @@
         <v>12</v>
       </c>
       <c r="K6" s="69">
-        <f>F7+F13+F20+F43+F45+F47+F46+J76+F75+F89+F90+F99+F100+F115+F116+F117</f>
-        <v>62.7</v>
+        <f>F7+F13+F20+F43+F45+F47+F46+J76+F75+F89+F90+F99+F100+F115+F116+F117+J133</f>
+        <v>75.2</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2335,8 +2341,8 @@
         <v>13</v>
       </c>
       <c r="K9" s="69">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74</f>
-        <v>80.930000000000007</v>
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131</f>
+        <v>86.59</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3672,7 +3678,7 @@
       </c>
       <c r="J74">
         <f>F80+F91+F102+F104+F103+F118+F119+F120</f>
-        <v>35.21</v>
+        <v>36.870000000000005</v>
       </c>
       <c r="K74">
         <f>E80+E91+E102+E103+E104+E118+E119+E120</f>
@@ -3823,7 +3829,7 @@
       <c r="F80" s="34">
         <v>9</v>
       </c>
-      <c r="G80" s="11"/>
+      <c r="G80" s="49"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
@@ -4003,7 +4009,7 @@
         <v>6</v>
       </c>
       <c r="F91" s="34">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="G91" s="11"/>
     </row>
@@ -4211,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="F103" s="1">
-        <v>4.34</v>
+        <v>4.5</v>
       </c>
       <c r="G103" s="11"/>
     </row>
@@ -4471,7 +4477,7 @@
       <c r="F118" s="34">
         <v>12</v>
       </c>
-      <c r="G118" s="11"/>
+      <c r="G118" s="7"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="45" t="s">
@@ -4643,15 +4649,19 @@
         <v>178</v>
       </c>
       <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
+      <c r="E130" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F130" s="13">
+        <v>1.5</v>
+      </c>
       <c r="G130" s="13"/>
       <c r="I130" s="57" t="s">
         <v>9</v>
       </c>
       <c r="J130">
         <f>F136+F137+F138+F139</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K130">
         <f>E136+E138+E137+E139</f>
@@ -4667,22 +4677,22 @@
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F131" s="13">
-        <v>2</v>
-      </c>
-      <c r="G131" s="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="G131" s="7"/>
       <c r="I131" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J131">
         <f>F131+F130</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K131">
         <f>E131</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4708,11 +4718,23 @@
         <v>161</v>
       </c>
       <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
+      <c r="E133" s="13">
+        <v>6</v>
+      </c>
+      <c r="F133" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="G133" s="11"/>
       <c r="I133" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="J133">
+        <f>F133</f>
+        <v>12.5</v>
+      </c>
+      <c r="K133">
+        <f>E133</f>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4774,8 +4796,10 @@
       <c r="E137" s="13">
         <v>2</v>
       </c>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
+      <c r="F137" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G137" s="7"/>
     </row>
     <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="54" t="s">
@@ -4790,8 +4814,10 @@
       <c r="E138" s="13">
         <v>4</v>
       </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
+      <c r="F138" s="13">
+        <v>6</v>
+      </c>
+      <c r="G138" s="11"/>
     </row>
     <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="54" t="s">
@@ -4806,8 +4832,26 @@
       <c r="E139" s="13">
         <v>4</v>
       </c>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
+      <c r="F139" s="13">
+        <v>3</v>
+      </c>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13">
+        <v>0</v>
+      </c>
+      <c r="F140" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G140" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4829,8 +4873,9 @@
     <mergeCell ref="J22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0173CD12-7902-4494-A81E-3FB5B51BFE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37D631-8056-417A-870D-8B92B4E4C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="186">
   <si>
     <t>Nombre</t>
   </si>
@@ -621,6 +643,9 @@
   </si>
   <si>
     <t>apoyo toolbar</t>
+  </si>
+  <si>
+    <t>Demo 4</t>
   </si>
 </sst>
 </file>
@@ -2163,20 +2188,20 @@
   </sheetPr>
   <dimension ref="A2:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" topLeftCell="B119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.6328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2205,7 +2230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2214,7 +2239,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>292.2</v>
+        <v>305.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -2227,7 +2252,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2241,7 +2266,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2404,8 +2429,8 @@
         <v>14</v>
       </c>
       <c r="K12" s="69">
-        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77</f>
-        <v>44.85</v>
+        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134</f>
+        <v>57.85</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,7 +2574,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2569,7 +2594,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2587,7 +2612,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2610,7 +2635,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2628,7 +2653,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2646,7 +2671,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2664,7 +2689,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2682,7 +2707,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2700,7 +2725,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2718,7 +2743,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2736,7 +2761,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2754,7 +2779,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2771,7 +2796,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2789,7 +2814,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2805,7 +2830,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2823,7 +2848,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2841,7 +2866,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2859,7 +2884,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2877,7 +2902,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2895,7 +2920,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +2938,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2931,7 +2956,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -2941,7 +2966,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -2949,7 +2974,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2967,7 +2992,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2985,7 +3010,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3003,7 +3028,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3021,7 +3046,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3039,7 +3064,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3057,7 +3082,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3084,7 +3109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3113,7 +3138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3142,7 +3167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3171,7 +3196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3200,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3229,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3256,7 +3281,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3274,7 +3299,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3292,7 +3317,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3319,7 +3344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3348,7 +3373,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3377,7 +3402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3895,7 +3920,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4049,7 +4074,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4632,7 +4657,7 @@
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
       <c r="I129" s="58" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="J129" s="58" t="s">
         <v>45</v>
@@ -4745,11 +4770,17 @@
         <v>180</v>
       </c>
       <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
+      <c r="E134" s="13">
+        <v>13</v>
+      </c>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
       <c r="I134" s="8" t="s">
         <v>14</v>
+      </c>
+      <c r="J134" cm="1">
+        <f t="array" ref="J134:J135">E134:E135</f>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4765,6 +4796,9 @@
       <c r="G135" s="13"/>
       <c r="I135" s="10" t="s">
         <v>16</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4890,13 +4924,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4959,7 +4993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4982,7 +5016,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5224,7 +5258,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5247,7 +5281,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5270,7 +5304,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5284,7 +5318,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5305,7 +5339,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5320,7 +5354,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5335,7 +5369,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5356,7 +5390,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5371,7 +5405,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5394,7 +5428,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5409,7 +5443,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5432,7 +5466,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5447,7 +5481,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5462,7 +5496,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5485,7 +5519,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5506,7 +5540,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5527,7 +5561,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5548,7 +5582,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5565,7 +5599,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5580,7 +5614,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5603,7 +5637,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5620,7 +5654,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5635,7 +5669,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5656,7 +5690,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5679,7 +5713,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5702,7 +5736,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5725,7 +5759,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5748,7 +5782,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5769,7 +5803,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5784,7 +5818,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5854,11 +5888,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6071,27 +6106,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6116,9 +6141,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37D631-8056-417A-870D-8B92B4E4C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C8893-AC39-40DA-9B3B-04351F64568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -2189,7 +2189,7 @@
   <dimension ref="A2:P140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K17"/>
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2243,13 +2243,13 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>358.29</v>
+        <v>359.29</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
       <c r="K3" s="65">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="J130">
         <f>F136+F137+F138+F139</f>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="K130">
         <f>E136+E138+E137+E139</f>
@@ -4849,9 +4849,9 @@
         <v>4</v>
       </c>
       <c r="F138" s="13">
-        <v>6</v>
-      </c>
-      <c r="G138" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G138" s="7"/>
     </row>
     <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="54" t="s">
@@ -5897,6 +5897,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6105,14 +6113,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
@@ -6122,6 +6122,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6138,21 +6155,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C8893-AC39-40DA-9B3B-04351F64568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D505BC85-EAC1-4ABC-BAE1-2AA31C93B34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>16770</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>15758</xdr:rowOff>
+      <xdr:rowOff>12583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1541,7 +1541,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>15801</xdr:rowOff>
+      <xdr:rowOff>12626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2188,8 +2188,8 @@
   </sheetPr>
   <dimension ref="A2:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" topLeftCell="B123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2239,7 +2239,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>305.2</v>
+        <v>308.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="K12" s="69">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134</f>
-        <v>57.85</v>
+        <v>60.85</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="D134" s="13"/>
       <c r="E134" s="13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="J134" cm="1">
         <f t="array" ref="J134:J135">E134:E135</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5897,14 +5897,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6113,6 +6105,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
@@ -6122,23 +6122,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6155,4 +6138,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37D631-8056-417A-870D-8B92B4E4C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45D7C32-2B31-4D3A-94A1-9BB97BA886B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -2188,20 +2188,20 @@
   </sheetPr>
   <dimension ref="A2:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K17"/>
+    <sheetView tabSelected="1" topLeftCell="B68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>358.29</v>
+        <v>360.46000000000004</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2252,7 +2252,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="K9" s="69">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131</f>
-        <v>86.59</v>
+        <v>88.76</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2574,7 +2574,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -2974,7 +2974,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3920,7 +3920,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>183</v>
       </c>
       <c r="F130" s="13">
-        <v>1.5</v>
+        <v>3.67</v>
       </c>
       <c r="G130" s="11"/>
       <c r="I130" s="57" t="s">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="J131">
         <f>F131+F130</f>
-        <v>4</v>
+        <v>6.17</v>
       </c>
       <c r="K131">
         <f>E131</f>
@@ -4924,13 +4924,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4993,7 +4993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5258,7 +5258,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5443,7 +5443,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5481,7 +5481,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5496,7 +5496,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5599,7 +5599,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5654,7 +5654,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5669,7 +5669,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5897,6 +5897,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6105,14 +6113,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
@@ -6122,6 +6122,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6138,21 +6155,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7nume\OneDrive\Documentos\CEU\3- Tercero\Software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45D7C32-2B31-4D3A-94A1-9BB97BA886B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9182325E-B3BE-43AC-B600-22322A8CC6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="186">
   <si>
     <t>Nombre</t>
   </si>
@@ -2186,10 +2186,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P140"/>
+  <dimension ref="A2:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2238,12 +2238,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
-        <v>305.2</v>
+        <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
+        <v>307.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>360.46000000000004</v>
+        <v>365.96000000000004</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2488,8 +2488,8 @@
         <v>15</v>
       </c>
       <c r="K15" s="69">
-        <f>F10+F16+F39+F40+F49+F50+F51+J75</f>
-        <v>36.5</v>
+        <f>F10+F16+F39+F40+F49+F50+F51+J75+J132</f>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4653,9 +4653,13 @@
         <v>177</v>
       </c>
       <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
+      <c r="E129" s="13">
+        <v>1</v>
+      </c>
+      <c r="F129" s="13">
+        <v>2</v>
+      </c>
+      <c r="G129" s="11"/>
       <c r="I129" s="58" t="s">
         <v>185</v>
       </c>
@@ -4667,29 +4671,29 @@
       </c>
     </row>
     <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="52" t="s">
-        <v>13</v>
+      <c r="B130" s="51" t="s">
+        <v>15</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="D130" s="13"/>
-      <c r="E130" s="13" t="s">
-        <v>183</v>
+      <c r="E130" s="13">
+        <v>1</v>
       </c>
       <c r="F130" s="13">
-        <v>3.67</v>
-      </c>
-      <c r="G130" s="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="G130" s="7"/>
       <c r="I130" s="57" t="s">
         <v>9</v>
       </c>
       <c r="J130">
-        <f>F136+F137+F138+F139</f>
+        <f>F137+F138+F139+F140</f>
         <v>10.5</v>
       </c>
       <c r="K130">
-        <f>E136+E138+E137+E139</f>
+        <f>E137+E139+E138+E140</f>
         <v>30</v>
       </c>
     </row>
@@ -4698,88 +4702,98 @@
         <v>13</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D131" s="13"/>
-      <c r="E131" s="13">
-        <v>2</v>
+      <c r="E131" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="F131" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G131" s="7"/>
+        <v>3.67</v>
+      </c>
+      <c r="G131" s="11"/>
       <c r="I131" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J131">
-        <f>F131+F130</f>
+        <f>F132+F131</f>
         <v>6.17</v>
       </c>
       <c r="K131">
-        <f>E131</f>
+        <f>E132</f>
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="53" t="s">
-        <v>16</v>
+      <c r="B132" s="52" t="s">
+        <v>13</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
+      <c r="E132" s="13">
+        <v>2</v>
+      </c>
+      <c r="F132" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G132" s="7"/>
       <c r="I132" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="J132">
+        <f>F130+F129</f>
+        <v>5.5</v>
+      </c>
+      <c r="K132">
+        <f>E129+E130</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="55" t="s">
-        <v>12</v>
+      <c r="B133" s="53" t="s">
+        <v>16</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D133" s="13"/>
-      <c r="E133" s="13">
-        <v>6</v>
-      </c>
-      <c r="F133" s="13">
-        <v>12.5</v>
-      </c>
-      <c r="G133" s="11"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
       <c r="I133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J133">
-        <f>F133</f>
+        <f>F134</f>
         <v>12.5</v>
       </c>
       <c r="K133">
-        <f>E133</f>
+        <f>E134</f>
         <v>6</v>
       </c>
     </row>
     <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="56" t="s">
-        <v>14</v>
+      <c r="B134" s="55" t="s">
+        <v>12</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D134" s="13"/>
       <c r="E134" s="13">
-        <v>13</v>
-      </c>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="F134" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="G134" s="11"/>
       <c r="I134" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J134" cm="1">
-        <f t="array" ref="J134:J135">E134:E135</f>
+        <f t="array" ref="J134:J135">E135:E136</f>
         <v>13</v>
       </c>
     </row>
@@ -4788,10 +4802,12 @@
         <v>14</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
+      <c r="E135" s="13">
+        <v>13</v>
+      </c>
       <c r="F135" s="13"/>
       <c r="G135" s="13"/>
       <c r="I135" s="10" t="s">
@@ -4802,18 +4818,14 @@
       </c>
     </row>
     <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="54" t="s">
-        <v>9</v>
+      <c r="B136" s="56" t="s">
+        <v>14</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D136" s="13">
-        <v>24</v>
-      </c>
-      <c r="E136" s="13">
-        <v>20</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
     </row>
@@ -4822,43 +4834,41 @@
         <v>9</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>11</v>
+        <v>124</v>
+      </c>
+      <c r="D137" s="13">
+        <v>24</v>
       </c>
       <c r="E137" s="13">
-        <v>2</v>
-      </c>
-      <c r="F137" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="G137" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
     </row>
     <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D138" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E138" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F138" s="13">
-        <v>6</v>
-      </c>
-      <c r="G138" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="G138" s="7"/>
     </row>
     <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D139" s="13" t="s">
         <v>11</v>
@@ -4867,25 +4877,43 @@
         <v>4</v>
       </c>
       <c r="F139" s="13">
+        <v>6</v>
+      </c>
+      <c r="G139" s="11"/>
+    </row>
+    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="13">
+        <v>4</v>
+      </c>
+      <c r="F140" s="13">
         <v>3</v>
       </c>
-      <c r="G139" s="7"/>
-    </row>
-    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="53" t="s">
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C141" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13">
+      <c r="D141" s="13"/>
+      <c r="E141" s="13">
         <v>0</v>
       </c>
-      <c r="F140" s="13">
+      <c r="F141" s="13">
         <v>0.5</v>
       </c>
-      <c r="G140" s="7"/>
+      <c r="G141" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5897,14 +5925,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6113,6 +6133,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
@@ -6122,23 +6150,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6155,4 +6166,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7nume\OneDrive\Documentos\CEU\3- Tercero\Software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9182325E-B3BE-43AC-B600-22322A8CC6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B659DF-8610-490A-8D2D-9A0605FA3827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -2188,20 +2188,20 @@
   </sheetPr>
   <dimension ref="A2:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.6328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2243,16 +2243,16 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>365.96000000000004</v>
+        <v>370.96000000000004</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
       <c r="K3" s="65">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2574,7 +2574,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -2974,7 +2974,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3920,7 +3920,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="J130">
         <f>F137+F138+F139+F140</f>
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="K130">
         <f>E137+E139+E138+E140</f>
@@ -4842,8 +4842,10 @@
       <c r="E137" s="13">
         <v>20</v>
       </c>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
+      <c r="F137" s="13">
+        <v>4</v>
+      </c>
+      <c r="G137" s="11"/>
     </row>
     <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="54" t="s">
@@ -4877,9 +4879,9 @@
         <v>4</v>
       </c>
       <c r="F139" s="13">
-        <v>6</v>
-      </c>
-      <c r="G139" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G139" s="7"/>
     </row>
     <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="54" t="s">
@@ -4952,13 +4954,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5021,7 +5023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5286,7 +5288,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5309,7 +5311,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5346,7 +5348,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5382,7 +5384,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5397,7 +5399,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5418,7 +5420,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5433,7 +5435,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5456,7 +5458,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5471,7 +5473,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5509,7 +5511,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5524,7 +5526,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5610,7 +5612,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5627,7 +5629,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5642,7 +5644,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5682,7 +5684,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5697,7 +5699,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5741,7 +5743,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5764,7 +5766,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5787,7 +5789,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5810,7 +5812,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5846,7 +5848,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5925,6 +5927,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6133,14 +6143,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
@@ -6150,6 +6152,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6166,21 +6185,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B659DF-8610-490A-8D2D-9A0605FA3827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CBC8CA-C54D-4056-854E-D02DF88F7179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="553" windowWidth="19200" windowHeight="10074" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -77,11 +78,35 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
@@ -1974,6 +1999,76 @@
 </personList>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>8</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>8</v>
+    <v>1</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -2188,23 +2283,23 @@
   </sheetPr>
   <dimension ref="A2:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.52734375" customWidth="1"/>
+    <col min="5" max="5" width="13.64453125" customWidth="1"/>
+    <col min="7" max="7" width="53.46875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.3515625" customWidth="1"/>
+    <col min="11" max="11" width="35.46875" customWidth="1"/>
+    <col min="12" max="12" width="26.64453125" customWidth="1"/>
+    <col min="16" max="16" width="17.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +2325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2243,7 +2338,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>370.96000000000004</v>
+        <v>377.46000000000004</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2252,7 +2347,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2266,7 +2361,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2279,7 +2374,7 @@
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2305,7 +2400,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2326,7 +2421,7 @@
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2347,7 +2442,7 @@
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2372,7 +2467,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2390,7 +2485,7 @@
       <c r="J10" s="71"/>
       <c r="K10" s="69"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2410,7 +2505,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2428,12 +2523,12 @@
       <c r="J12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="69">
-        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134</f>
-        <v>57.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="69" t="e" vm="1">
+        <f ca="1">F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2451,7 +2546,7 @@
       <c r="J13" s="74"/>
       <c r="K13" s="69"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2469,7 +2564,7 @@
       <c r="J14" s="75"/>
       <c r="K14" s="69"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2492,7 +2587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2510,7 +2605,7 @@
       <c r="J16" s="77"/>
       <c r="K16" s="69"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2528,7 +2623,7 @@
       <c r="J17" s="78"/>
       <c r="K17" s="69"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2553,7 +2648,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2574,7 +2669,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2594,7 +2689,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2612,7 +2707,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2635,7 +2730,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2653,7 +2748,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2671,7 +2766,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2689,7 +2784,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2707,7 +2802,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2820,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2838,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2761,7 +2856,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2874,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2796,7 +2891,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2814,7 +2909,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2830,7 +2925,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2848,7 +2943,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2866,7 +2961,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2884,7 +2979,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2902,7 +2997,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2920,7 +3015,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2938,7 +3033,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2956,7 +3051,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -2966,7 +3061,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -2974,7 +3069,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2992,7 +3087,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3010,7 +3105,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3028,7 +3123,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3046,7 +3141,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3159,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3082,7 +3177,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3109,7 +3204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3138,7 +3233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3167,7 +3262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3196,7 +3291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3254,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3281,7 +3376,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3299,7 +3394,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3317,7 +3412,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3344,7 +3439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3373,7 +3468,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3402,7 +3497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3429,7 +3524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -3458,7 +3553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3487,7 +3582,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +3611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3534,7 +3629,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3553,7 +3648,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -3571,7 +3666,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -3589,7 +3684,7 @@
       </c>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3607,7 +3702,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -3625,7 +3720,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3643,7 +3738,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="59" t="s">
         <v>67</v>
       </c>
@@ -3662,7 +3757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="63"/>
       <c r="C73" s="64"/>
       <c r="D73" s="64"/>
@@ -3681,7 +3776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3710,7 +3805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3739,7 +3834,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3766,7 +3861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3795,7 +3890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3824,7 +3919,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3840,7 +3935,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3856,7 +3951,7 @@
       </c>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3870,7 +3965,7 @@
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3888,7 +3983,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -3906,7 +4001,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -3920,7 +4015,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3934,7 +4029,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -3948,7 +4043,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
@@ -3966,7 +4061,7 @@
       </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -3984,7 +4079,7 @@
       </c>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -4002,7 +4097,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -4020,7 +4115,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -4038,7 +4133,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -4056,7 +4151,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -4074,7 +4169,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4092,7 +4187,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4110,7 +4205,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
@@ -4128,7 +4223,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -4146,7 +4241,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="37" t="s">
         <v>150</v>
       </c>
@@ -4160,7 +4255,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
@@ -4178,7 +4273,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -4194,7 +4289,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -4212,7 +4307,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
@@ -4228,7 +4323,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4246,7 +4341,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
@@ -4264,7 +4359,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
@@ -4282,7 +4377,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
@@ -4300,7 +4395,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
@@ -4318,7 +4413,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
@@ -4336,7 +4431,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B109" s="42" t="s">
         <v>9</v>
       </c>
@@ -4354,7 +4449,7 @@
       </c>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B110" s="42" t="s">
         <v>9</v>
       </c>
@@ -4372,7 +4467,7 @@
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B111" s="42" t="s">
         <v>9</v>
       </c>
@@ -4390,7 +4485,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
@@ -4404,7 +4499,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B113" s="44" t="s">
         <v>14</v>
       </c>
@@ -4418,7 +4513,7 @@
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B114" s="44" t="s">
         <v>14</v>
       </c>
@@ -4432,7 +4527,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
@@ -4450,7 +4545,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -4468,7 +4563,7 @@
       </c>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
@@ -4486,7 +4581,7 @@
       </c>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
@@ -4504,7 +4599,7 @@
       </c>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
@@ -4522,7 +4617,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
@@ -4538,7 +4633,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4546,7 +4641,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
@@ -4564,7 +4659,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
@@ -4582,7 +4677,7 @@
       </c>
       <c r="G123" s="48"/>
     </row>
-    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4600,7 +4695,7 @@
       </c>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
@@ -4612,7 +4707,7 @@
       </c>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B126" s="10" t="s">
         <v>16</v>
       </c>
@@ -4627,7 +4722,7 @@
       </c>
       <c r="G126" s="50"/>
     </row>
-    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B127" s="59" t="s">
         <v>176</v>
       </c>
@@ -4637,7 +4732,7 @@
       <c r="F127" s="60"/>
       <c r="G127" s="60"/>
     </row>
-    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B128" s="61"/>
       <c r="C128" s="62"/>
       <c r="D128" s="62"/>
@@ -4645,7 +4740,7 @@
       <c r="F128" s="62"/>
       <c r="G128" s="62"/>
     </row>
-    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B129" s="51" t="s">
         <v>15</v>
       </c>
@@ -4670,7 +4765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B130" s="51" t="s">
         <v>15</v>
       </c>
@@ -4697,7 +4792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B131" s="52" t="s">
         <v>13</v>
       </c>
@@ -4724,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B132" s="52" t="s">
         <v>13</v>
       </c>
@@ -4751,7 +4846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B133" s="53" t="s">
         <v>16</v>
       </c>
@@ -4760,7 +4855,9 @@
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
+      <c r="F133" s="13">
+        <v>6.5</v>
+      </c>
       <c r="G133" s="13"/>
       <c r="I133" s="5" t="s">
         <v>12</v>
@@ -4774,7 +4871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B134" s="55" t="s">
         <v>12</v>
       </c>
@@ -4792,12 +4889,12 @@
       <c r="I134" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J134" cm="1">
-        <f t="array" ref="J134:J135">E135:E136</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J134" t="e" cm="1" vm="2">
+        <f t="array" aca="1" ref="J134" ca="1">E135:E136</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B135" s="56" t="s">
         <v>14</v>
       </c>
@@ -4814,10 +4911,11 @@
         <v>16</v>
       </c>
       <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>F133+F141</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B136" s="56" t="s">
         <v>14</v>
       </c>
@@ -4829,7 +4927,7 @@
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
     </row>
-    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B137" s="54" t="s">
         <v>9</v>
       </c>
@@ -4847,7 +4945,7 @@
       </c>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B138" s="54" t="s">
         <v>9</v>
       </c>
@@ -4865,7 +4963,7 @@
       </c>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B139" s="54" t="s">
         <v>9</v>
       </c>
@@ -4883,7 +4981,7 @@
       </c>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B140" s="54" t="s">
         <v>9</v>
       </c>
@@ -4901,7 +4999,7 @@
       </c>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B141" s="53" t="s">
         <v>16</v>
       </c>
@@ -4954,17 +5052,17 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.52734375" customWidth="1"/>
+    <col min="2" max="2" width="35.46875" customWidth="1"/>
+    <col min="3" max="3" width="27.3515625" customWidth="1"/>
+    <col min="4" max="4" width="10.3515625" customWidth="1"/>
+    <col min="7" max="7" width="17.46875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -4994,7 +5092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5023,7 +5121,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5046,7 +5144,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5069,7 +5167,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5084,7 +5182,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5103,7 +5201,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5126,7 +5224,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5141,7 +5239,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5164,7 +5262,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5179,7 +5277,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5194,7 +5292,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5211,7 +5309,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5226,7 +5324,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5243,7 +5341,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5258,7 +5356,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5273,7 +5371,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5288,7 +5386,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5311,7 +5409,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5334,7 +5432,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5348,7 +5446,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5369,7 +5467,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5384,7 +5482,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5399,7 +5497,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5420,7 +5518,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5435,7 +5533,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5458,7 +5556,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5473,7 +5571,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5496,7 +5594,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5511,7 +5609,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5526,7 +5624,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5549,7 +5647,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5570,7 +5668,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5591,7 +5689,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5612,7 +5710,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5629,7 +5727,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5644,7 +5742,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5667,7 +5765,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5684,7 +5782,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5699,7 +5797,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5720,7 +5818,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5743,7 +5841,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5766,7 +5864,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5789,7 +5887,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5812,7 +5910,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5833,7 +5931,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5848,7 +5946,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5869,7 +5967,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5892,7 +5990,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -5927,14 +6025,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6143,6 +6233,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
@@ -6152,23 +6250,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6185,4 +6266,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CBC8CA-C54D-4056-854E-D02DF88F7179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0017F0B6-F999-4EE8-BF2D-3F9270BBFF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="553" windowWidth="19200" windowHeight="10074" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -61,53 +61,6 @@
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1999,76 +1952,6 @@
 </personList>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>8</v>
-    <v>1</v>
-  </rv>
-  <rv s="1">
-    <v>0</v>
-    <v>8</v>
-    <v>1</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="propagated" t="b"/>
-  </s>
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -2283,23 +2166,23 @@
   </sheetPr>
   <dimension ref="A2:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.64453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.52734375" customWidth="1"/>
-    <col min="5" max="5" width="13.64453125" customWidth="1"/>
-    <col min="7" max="7" width="53.46875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.3515625" customWidth="1"/>
-    <col min="11" max="11" width="35.46875" customWidth="1"/>
-    <col min="12" max="12" width="26.64453125" customWidth="1"/>
-    <col min="16" max="16" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.6328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2217,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
-        <v>307.2</v>
+        <v>310.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -2347,7 +2230,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2361,7 +2244,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2374,7 +2257,7 @@
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2400,7 +2283,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2304,7 @@
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2442,7 +2325,7 @@
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2467,7 +2350,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2485,7 +2368,7 @@
       <c r="J10" s="71"/>
       <c r="K10" s="69"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2505,7 +2388,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2523,12 +2406,12 @@
       <c r="J12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="69" t="e" vm="1">
-        <f ca="1">F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="69">
+        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134</f>
+        <v>60.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2546,7 +2429,7 @@
       <c r="J13" s="74"/>
       <c r="K13" s="69"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2564,7 +2447,7 @@
       <c r="J14" s="75"/>
       <c r="K14" s="69"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2587,7 +2470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2605,7 +2488,7 @@
       <c r="J16" s="77"/>
       <c r="K16" s="69"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2623,7 +2506,7 @@
       <c r="J17" s="78"/>
       <c r="K17" s="69"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2648,7 +2531,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2669,7 +2552,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2689,7 +2572,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2707,7 +2590,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2730,7 +2613,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2748,7 +2631,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2766,7 +2649,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2784,7 +2667,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2802,7 +2685,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2820,7 +2703,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2838,7 +2721,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2856,7 +2739,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2874,7 +2757,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2891,7 +2774,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2909,7 +2792,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2925,7 +2808,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2943,7 +2826,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2961,7 +2844,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2979,7 +2862,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2997,7 +2880,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -3015,7 +2898,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -3033,7 +2916,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -3051,7 +2934,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -3061,7 +2944,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -3069,7 +2952,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3087,7 +2970,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3105,7 +2988,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3123,7 +3006,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3141,7 +3024,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3159,7 +3042,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3177,7 +3060,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3204,7 +3087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3233,7 +3116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3262,7 +3145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3291,7 +3174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3320,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3349,7 +3232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3376,7 +3259,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3394,7 +3277,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3412,7 +3295,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3439,7 +3322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3468,7 +3351,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3497,7 +3380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3524,7 +3407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -3553,7 +3436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3582,7 +3465,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3629,7 +3512,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3648,7 +3531,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -3666,7 +3549,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -3684,7 +3567,7 @@
       </c>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3702,7 +3585,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -3720,7 +3603,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3738,7 +3621,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="59" t="s">
         <v>67</v>
       </c>
@@ -3757,7 +3640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="63"/>
       <c r="C73" s="64"/>
       <c r="D73" s="64"/>
@@ -3776,7 +3659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3834,7 +3717,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3861,7 +3744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3890,7 +3773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3919,7 +3802,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3935,7 +3818,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3951,7 +3834,7 @@
       </c>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3965,7 +3848,7 @@
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3983,7 +3866,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -4001,7 +3884,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -4015,7 +3898,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4029,7 +3912,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -4043,7 +3926,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
@@ -4061,7 +3944,7 @@
       </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -4079,7 +3962,7 @@
       </c>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -4097,7 +3980,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -4115,7 +3998,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -4133,7 +4016,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -4151,7 +4034,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -4169,7 +4052,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4187,7 +4070,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4205,7 +4088,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
@@ -4223,7 +4106,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -4241,7 +4124,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="37" t="s">
         <v>150</v>
       </c>
@@ -4255,7 +4138,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
@@ -4273,7 +4156,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -4289,7 +4172,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -4307,7 +4190,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
@@ -4323,7 +4206,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4341,7 +4224,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
@@ -4359,7 +4242,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
@@ -4377,7 +4260,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
@@ -4395,7 +4278,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
@@ -4413,7 +4296,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
@@ -4431,7 +4314,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="42" t="s">
         <v>9</v>
       </c>
@@ -4449,7 +4332,7 @@
       </c>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="42" t="s">
         <v>9</v>
       </c>
@@ -4467,7 +4350,7 @@
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="42" t="s">
         <v>9</v>
       </c>
@@ -4485,7 +4368,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
@@ -4499,7 +4382,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="44" t="s">
         <v>14</v>
       </c>
@@ -4513,7 +4396,7 @@
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="44" t="s">
         <v>14</v>
       </c>
@@ -4527,7 +4410,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
@@ -4545,7 +4428,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -4563,7 +4446,7 @@
       </c>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
@@ -4581,7 +4464,7 @@
       </c>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
@@ -4599,7 +4482,7 @@
       </c>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
@@ -4617,7 +4500,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
@@ -4633,7 +4516,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4641,7 +4524,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
@@ -4659,7 +4542,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
@@ -4677,7 +4560,7 @@
       </c>
       <c r="G123" s="48"/>
     </row>
-    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4695,7 +4578,7 @@
       </c>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
@@ -4707,7 +4590,7 @@
       </c>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>16</v>
       </c>
@@ -4722,7 +4605,7 @@
       </c>
       <c r="G126" s="50"/>
     </row>
-    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="59" t="s">
         <v>176</v>
       </c>
@@ -4732,7 +4615,7 @@
       <c r="F127" s="60"/>
       <c r="G127" s="60"/>
     </row>
-    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="61"/>
       <c r="C128" s="62"/>
       <c r="D128" s="62"/>
@@ -4740,7 +4623,7 @@
       <c r="F128" s="62"/>
       <c r="G128" s="62"/>
     </row>
-    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
         <v>15</v>
       </c>
@@ -4765,7 +4648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="51" t="s">
         <v>15</v>
       </c>
@@ -4792,7 +4675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="52" t="s">
         <v>13</v>
       </c>
@@ -4819,7 +4702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="52" t="s">
         <v>13</v>
       </c>
@@ -4846,7 +4729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="53" t="s">
         <v>16</v>
       </c>
@@ -4871,7 +4754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="55" t="s">
         <v>12</v>
       </c>
@@ -4889,12 +4772,12 @@
       <c r="I134" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J134" t="e" cm="1" vm="2">
-        <f t="array" aca="1" ref="J134" ca="1">E135:E136</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J134">
+        <f>E135 + E136</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="56" t="s">
         <v>14</v>
       </c>
@@ -4903,7 +4786,7 @@
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F135" s="13"/>
       <c r="G135" s="13"/>
@@ -4915,7 +4798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="56" t="s">
         <v>14</v>
       </c>
@@ -4927,7 +4810,7 @@
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
     </row>
-    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="54" t="s">
         <v>9</v>
       </c>
@@ -4945,7 +4828,7 @@
       </c>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="54" t="s">
         <v>9</v>
       </c>
@@ -4963,7 +4846,7 @@
       </c>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="54" t="s">
         <v>9</v>
       </c>
@@ -4981,7 +4864,7 @@
       </c>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="54" t="s">
         <v>9</v>
       </c>
@@ -4999,7 +4882,7 @@
       </c>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="53" t="s">
         <v>16</v>
       </c>
@@ -5052,17 +4935,17 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.52734375" customWidth="1"/>
-    <col min="2" max="2" width="35.46875" customWidth="1"/>
-    <col min="3" max="3" width="27.3515625" customWidth="1"/>
-    <col min="4" max="4" width="10.3515625" customWidth="1"/>
-    <col min="7" max="7" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -5092,7 +4975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5121,7 +5004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5144,7 +5027,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5167,7 +5050,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5182,7 +5065,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5201,7 +5084,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5224,7 +5107,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5239,7 +5122,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5262,7 +5145,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5277,7 +5160,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5292,7 +5175,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5309,7 +5192,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5324,7 +5207,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5341,7 +5224,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5356,7 +5239,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5371,7 +5254,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5386,7 +5269,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5409,7 +5292,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5432,7 +5315,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5446,7 +5329,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5467,7 +5350,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5482,7 +5365,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5497,7 +5380,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5518,7 +5401,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5533,7 +5416,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5556,7 +5439,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5571,7 +5454,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5594,7 +5477,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5609,7 +5492,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5624,7 +5507,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5647,7 +5530,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5668,7 +5551,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5689,7 +5572,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5710,7 +5593,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5727,7 +5610,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5742,7 +5625,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5765,7 +5648,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5782,7 +5665,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5797,7 +5680,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5818,7 +5701,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5841,7 +5724,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5864,7 +5747,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5887,7 +5770,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5910,7 +5793,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5931,7 +5814,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5946,7 +5829,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5967,7 +5850,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5990,7 +5873,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -6025,6 +5908,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6233,14 +6124,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
@@ -6250,6 +6133,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6266,21 +6166,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0017F0B6-F999-4EE8-BF2D-3F9270BBFF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D593A29-562F-4946-930F-76056B008103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -2166,20 +2166,20 @@
   </sheetPr>
   <dimension ref="A2:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>377.46000000000004</v>
+        <v>378.46000000000004</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2230,7 +2230,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="K9" s="69">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131</f>
-        <v>88.76</v>
+        <v>89.76</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2552,7 +2552,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -2952,7 +2952,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>183</v>
       </c>
       <c r="F131" s="13">
-        <v>3.67</v>
+        <v>4.67</v>
       </c>
       <c r="G131" s="11"/>
       <c r="I131" s="6" t="s">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="J131">
         <f>F132+F131</f>
-        <v>6.17</v>
+        <v>7.17</v>
       </c>
       <c r="K131">
         <f>E132</f>
@@ -4935,13 +4935,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5004,7 +5004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5416,7 +5416,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5507,7 +5507,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5610,7 +5610,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5625,7 +5625,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5680,7 +5680,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5899,23 +5899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6124,10 +6107,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6150,20 +6161,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D593A29-562F-4946-930F-76056B008103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BAEF17-F9FF-400D-8450-AA093F1ADFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="187">
   <si>
     <t>Nombre</t>
   </si>
@@ -624,6 +624,9 @@
   </si>
   <si>
     <t>Demo 4</t>
+  </si>
+  <si>
+    <t>Cartel juegos cartas, juegos dados, juegos extra, eventos</t>
   </si>
 </sst>
 </file>
@@ -2166,20 +2169,20 @@
   </sheetPr>
   <dimension ref="A2:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140:G140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.6328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2208,7 +2211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2220,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
-        <v>310.2</v>
+        <v>306.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -2230,7 +2233,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2244,7 +2247,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2552,7 +2555,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2572,7 +2575,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2590,7 +2593,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2613,7 +2616,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2631,7 +2634,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2649,7 +2652,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2667,7 +2670,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2685,7 +2688,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2703,7 +2706,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2721,7 +2724,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2739,7 +2742,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2757,7 +2760,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2774,7 +2777,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2792,7 +2795,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2844,7 +2847,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2862,7 +2865,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2880,7 +2883,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2898,7 +2901,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2916,7 +2919,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2934,7 +2937,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -2944,7 +2947,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -2952,7 +2955,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2970,7 +2973,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2988,7 +2991,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +3009,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3024,7 +3027,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3042,7 +3045,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3060,7 +3063,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3277,7 +3280,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3295,7 +3298,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3898,7 +3901,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4052,7 +4055,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4672,7 +4675,7 @@
       </c>
       <c r="K130">
         <f>E137+E139+E138+E140</f>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4869,13 +4872,13 @@
         <v>9</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D140" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F140" s="13">
         <v>3</v>
@@ -4935,13 +4938,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5004,7 +5007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5269,7 +5272,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5329,7 +5332,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5365,7 +5368,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5380,7 +5383,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5416,7 +5419,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5454,7 +5457,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5492,7 +5495,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5507,7 +5510,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5551,7 +5554,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5593,7 +5596,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5610,7 +5613,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5625,7 +5628,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5665,7 +5668,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5680,7 +5683,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5701,7 +5704,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5747,7 +5750,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5829,7 +5832,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5899,6 +5902,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6107,38 +6127,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6161,9 +6153,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BAEF17-F9FF-400D-8450-AA093F1ADFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01942908-3111-4E66-BDC4-29A6A4CDBB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -2169,20 +2169,20 @@
   </sheetPr>
   <dimension ref="A2:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140:G140"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2220,11 +2220,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
-        <v>306.2</v>
+        <v>298.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>378.46000000000004</v>
+        <v>401.36</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2233,7 +2233,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2279,8 +2279,8 @@
         <v>12</v>
       </c>
       <c r="K6" s="69">
-        <f>F7+F13+F20+F43+F45+F47+F46+J76+F75+F89+F90+F99+F100+F115+F116+F117+J133</f>
-        <v>75.2</v>
+        <f>F7+F13+F20+F43+F45+F47+F46+J76+J133</f>
+        <v>64.5</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="K12" s="69">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134</f>
-        <v>60.85</v>
+        <v>62.85</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,8 +2530,8 @@
         <v>16</v>
       </c>
       <c r="K18" s="69">
-        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81+J78</f>
-        <v>35.75</v>
+        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135</f>
+        <v>36.75</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2555,7 +2555,7 @@
       <c r="J19" s="80"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="J20" s="80"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -2955,7 +2955,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4744,13 +4744,13 @@
       <c r="F133" s="13">
         <v>6.5</v>
       </c>
-      <c r="G133" s="13"/>
+      <c r="G133" s="11"/>
       <c r="I133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J133">
         <f>F134</f>
-        <v>12.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K133">
         <f>E134</f>
@@ -4769,15 +4769,19 @@
         <v>6</v>
       </c>
       <c r="F134" s="13">
-        <v>12.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G134" s="11"/>
       <c r="I134" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J134">
-        <f>E135 + E136</f>
-        <v>16</v>
+        <f>F136 + F135</f>
+        <v>18</v>
+      </c>
+      <c r="K134">
+        <f>E135+E136</f>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4789,10 +4793,12 @@
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13">
+        <v>8</v>
+      </c>
+      <c r="F135" s="13">
         <v>16</v>
       </c>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
+      <c r="G135" s="11"/>
       <c r="I135" s="10" t="s">
         <v>16</v>
       </c>
@@ -4810,8 +4816,10 @@
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
+      <c r="F136" s="13">
+        <v>2</v>
+      </c>
+      <c r="G136" s="11"/>
     </row>
     <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="54" t="s">
@@ -4938,13 +4946,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5007,7 +5015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5030,7 +5038,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5272,7 +5280,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5295,7 +5303,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5318,7 +5326,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5332,7 +5340,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5353,7 +5361,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5368,7 +5376,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5383,7 +5391,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5419,7 +5427,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5442,7 +5450,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5457,7 +5465,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5480,7 +5488,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5495,7 +5503,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5510,7 +5518,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5533,7 +5541,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5554,7 +5562,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5575,7 +5583,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5596,7 +5604,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5613,7 +5621,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5628,7 +5636,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5668,7 +5676,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5683,7 +5691,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5704,7 +5712,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5727,7 +5735,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5750,7 +5758,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5773,7 +5781,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5796,7 +5804,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5817,7 +5825,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5832,7 +5840,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5902,23 +5910,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6127,10 +6118,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6153,20 +6172,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01942908-3111-4E66-BDC4-29A6A4CDBB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2E1F8D-FDB3-467E-8F13-151B2AFC0C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="193">
   <si>
     <t>Nombre</t>
   </si>
@@ -627,6 +627,24 @@
   </si>
   <si>
     <t>Cartel juegos cartas, juegos dados, juegos extra, eventos</t>
+  </si>
+  <si>
+    <t>DEMO5</t>
+  </si>
+  <si>
+    <t>Demo 5</t>
+  </si>
+  <si>
+    <t>Pasar Ruleta Rusa a nuevo modo</t>
+  </si>
+  <si>
+    <t>Acabar Soporte al cliente</t>
+  </si>
+  <si>
+    <t>Ayuda a hacer Soporte al cliente (tema emails)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desafios y recompensa </t>
   </si>
 </sst>
 </file>
@@ -996,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1149,6 +1167,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2167,10 +2186,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P141"/>
+  <dimension ref="A2:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K5"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4909,8 +4928,108 @@
       </c>
       <c r="G141" s="7"/>
     </row>
+    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
+    </row>
+    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="61"/>
+      <c r="C143" s="62"/>
+      <c r="D143" s="62"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="62"/>
+    </row>
+    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="I144" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="J144" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K144" s="58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="I145" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="I146" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="I147" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I148" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I149" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I150" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="B142:G143"/>
     <mergeCell ref="B127:G128"/>
     <mergeCell ref="B72:G73"/>
     <mergeCell ref="B41:G42"/>
@@ -5910,6 +6029,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6118,38 +6254,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6172,9 +6280,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2E1F8D-FDB3-467E-8F13-151B2AFC0C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF444C5-979B-4218-BC32-44BC05E0C0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1167,7 +1167,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2188,8 +2187,8 @@
   </sheetPr>
   <dimension ref="A2:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2239,11 +2238,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
-        <v>298.2</v>
+        <v>300.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>401.36</v>
+        <v>404.11</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2298,8 +2297,8 @@
         <v>12</v>
       </c>
       <c r="K6" s="69">
-        <f>F7+F13+F20+F43+F45+F47+F46+J76+J133</f>
-        <v>64.5</v>
+        <f>F7+F13+F20+F43+F45+F47+F46+J76+J133+J148</f>
+        <v>67.25</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -4158,7 +4157,7 @@
       </c>
       <c r="E98" s="37"/>
       <c r="F98" s="37"/>
-      <c r="G98" s="11"/>
+      <c r="G98" s="7"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
@@ -4176,7 +4175,7 @@
       <c r="F99" s="37">
         <v>5</v>
       </c>
-      <c r="G99" s="11"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
@@ -4448,7 +4447,7 @@
       <c r="F115" s="37">
         <v>6</v>
       </c>
-      <c r="G115" s="11"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
@@ -4790,7 +4789,7 @@
       <c r="F134" s="13">
         <v>17.399999999999999</v>
       </c>
-      <c r="G134" s="11"/>
+      <c r="G134" s="7"/>
       <c r="I134" s="8" t="s">
         <v>14</v>
       </c>
@@ -4950,13 +4949,17 @@
       <c r="B144" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C144" s="82" t="s">
+      <c r="C144" s="13" t="s">
         <v>189</v>
       </c>
       <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
+      <c r="E144" s="13">
+        <v>2</v>
+      </c>
+      <c r="F144" s="13">
+        <v>2.75</v>
+      </c>
+      <c r="G144" s="7"/>
       <c r="I144" s="58" t="s">
         <v>188</v>
       </c>
@@ -4967,11 +4970,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C145" s="82" t="s">
+      <c r="C145" s="13" t="s">
         <v>190</v>
       </c>
       <c r="D145" s="13"/>
@@ -4982,11 +4985,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="82" t="s">
+      <c r="C146" s="13" t="s">
         <v>191</v>
       </c>
       <c r="D146" s="13"/>
@@ -4997,11 +5000,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C147" s="82" t="s">
+      <c r="C147" s="13" t="s">
         <v>192</v>
       </c>
       <c r="D147" s="13"/>
@@ -5012,23 +5015,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I148" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="149" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <f>F144</f>
+        <v>2.75</v>
+      </c>
+      <c r="K148">
+        <f>E144</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I149" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I150" s="10" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J22:L22"/>
     <mergeCell ref="B142:G143"/>
     <mergeCell ref="B127:G128"/>
     <mergeCell ref="B72:G73"/>
@@ -5045,7 +5057,6 @@
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6029,23 +6040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6254,10 +6248,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6280,20 +6302,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2E1F8D-FDB3-467E-8F13-151B2AFC0C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BACED9B-2B5B-46E5-A957-0C4C0FE602EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="196">
   <si>
     <t>Nombre</t>
   </si>
@@ -645,6 +645,15 @@
   </si>
   <si>
     <t xml:space="preserve">Desafios y recompensa </t>
+  </si>
+  <si>
+    <t>retoques finales de toolbar</t>
+  </si>
+  <si>
+    <t>cartas de eleccion</t>
+  </si>
+  <si>
+    <t>interfaz de ajustes</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1104,41 +1113,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,6 +1126,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,10 +1146,36 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2186,10 +2194,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P150"/>
+  <dimension ref="A2:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2243,11 +2251,11 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>401.36</v>
+        <v>401.86</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="65">
+      <c r="K3" s="72">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
         <v>103</v>
       </c>
@@ -2264,17 +2272,17 @@
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="65"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="65"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2294,10 +2302,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="66">
         <f>F7+F13+F20+F43+F45+F47+F46+J76+J133</f>
         <v>64.5</v>
       </c>
@@ -2320,8 +2328,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="69"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -2341,8 +2349,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -2362,12 +2370,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="69">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131</f>
-        <v>89.76</v>
+      <c r="K9" s="66">
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146</f>
+        <v>90.26</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2387,8 +2395,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="69"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -2405,8 +2413,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="69"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -2425,10 +2433,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="66">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134</f>
         <v>62.85</v>
       </c>
@@ -2448,8 +2456,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="69"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -2466,8 +2474,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="69"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -2484,10 +2492,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="66">
         <f>F10+F16+F39+F40+F49+F50+F51+J75+J132</f>
         <v>42</v>
       </c>
@@ -2507,8 +2515,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="69"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -2525,8 +2533,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -2545,10 +2553,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="66">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135</f>
         <v>36.75</v>
       </c>
@@ -2571,8 +2579,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="69"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -2591,8 +2599,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="69"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -2629,11 +2637,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="81" t="s">
+      <c r="J22" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2967,12 +2975,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3663,12 +3671,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4638,12 +4646,12 @@
       <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="61"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="62"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="81"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="81"/>
+      <c r="F128" s="81"/>
+      <c r="G128" s="81"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4709,7 +4717,7 @@
         <v>183</v>
       </c>
       <c r="F131" s="13">
-        <v>4.67</v>
+        <v>5.17</v>
       </c>
       <c r="G131" s="11"/>
       <c r="I131" s="6" t="s">
@@ -4717,7 +4725,7 @@
       </c>
       <c r="J131">
         <f>F132+F131</f>
-        <v>7.17</v>
+        <v>7.67</v>
       </c>
       <c r="K131">
         <f>E132</f>
@@ -4939,18 +4947,18 @@
       <c r="G142" s="60"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="61"/>
-      <c r="C143" s="62"/>
-      <c r="D143" s="62"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="62"/>
-      <c r="G143" s="62"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="81"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C144" s="82" t="s">
+      <c r="C144" s="13" t="s">
         <v>189</v>
       </c>
       <c r="D144" s="13"/>
@@ -4967,11 +4975,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C145" s="82" t="s">
+      <c r="C145" s="13" t="s">
         <v>190</v>
       </c>
       <c r="D145" s="13"/>
@@ -4982,11 +4990,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="82" t="s">
+      <c r="C146" s="13" t="s">
         <v>191</v>
       </c>
       <c r="D146" s="13"/>
@@ -4996,12 +5004,20 @@
       <c r="I146" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <f>F148+F149+F150+F151</f>
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <f>E148+E149+E150+E151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C147" s="82" t="s">
+      <c r="C147" s="13" t="s">
         <v>192</v>
       </c>
       <c r="D147" s="13"/>
@@ -5012,40 +5028,81 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
       <c r="I148" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
       <c r="I149" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
       <c r="I150" s="10" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J22:L22"/>
     <mergeCell ref="B142:G143"/>
     <mergeCell ref="B127:G128"/>
     <mergeCell ref="B72:G73"/>
     <mergeCell ref="B41:G42"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B4:G5"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6029,23 +6086,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6254,10 +6294,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6280,20 +6348,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 4ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 4ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BACED9B-2B5B-46E5-A957-0C4C0FE602EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA991EC-717F-4CDD-B293-F78C80FA8BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="196">
   <si>
     <t>Nombre</t>
   </si>
@@ -1107,10 +1107,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1119,25 +1128,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,14 +1158,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2196,8 +2196,8 @@
   </sheetPr>
   <dimension ref="A2:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2247,42 +2247,42 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
-        <v>298.2</v>
+        <v>301.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>401.86</v>
+        <v>402.53000000000003</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="72">
+      <c r="K3" s="69">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="69"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="72"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2302,7 +2302,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="70" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66">
@@ -2328,7 +2328,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="74"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2349,7 +2349,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="75"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2370,12 +2370,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="73" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="66">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146</f>
-        <v>90.26</v>
+        <v>90.93</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2395,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="78"/>
+      <c r="J11" s="75"/>
       <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2433,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="76" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="66">
@@ -2456,7 +2456,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="65"/>
+      <c r="J14" s="78"/>
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="67" t="s">
+      <c r="J15" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="66">
@@ -2515,7 +2515,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="68"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="69"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2553,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="67" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="66">
@@ -2579,7 +2579,7 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="71"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="71"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2637,11 +2637,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2965,22 +2965,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3652,14 +3652,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3671,12 +3671,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4636,22 +4636,22 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="60"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="80"/>
-      <c r="C128" s="81"/>
-      <c r="D128" s="81"/>
-      <c r="E128" s="81"/>
-      <c r="F128" s="81"/>
-      <c r="G128" s="81"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4937,22 +4937,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="59" t="s">
+      <c r="B142" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="61"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="80"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="81"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="81"/>
-      <c r="G143" s="81"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -5006,11 +5006,11 @@
       </c>
       <c r="J146">
         <f>F148+F149+F150+F151</f>
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="K146">
         <f>E148+E149+E150+E151</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,9 @@
       <c r="C148" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D148" s="13"/>
+      <c r="D148" s="15">
+        <v>9</v>
+      </c>
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
       <c r="I148" s="5" t="s">
@@ -5049,10 +5051,16 @@
       <c r="C149" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
+      <c r="D149" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="13">
+        <v>3</v>
+      </c>
+      <c r="F149" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="G149" s="11"/>
       <c r="I149" s="8" t="s">
         <v>14</v>
       </c>
@@ -5064,7 +5072,9 @@
       <c r="C150" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D150" s="13"/>
+      <c r="D150" s="15">
+        <v>19</v>
+      </c>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
@@ -5079,18 +5089,20 @@
       <c r="C151" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D151" s="13"/>
+      <c r="D151" s="15">
+        <v>39</v>
+      </c>
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
       <c r="G151" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B142:G143"/>
-    <mergeCell ref="B127:G128"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
@@ -5098,11 +5110,11 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B142:G143"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5118,8 +5130,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6086,6 +6098,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6294,38 +6323,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6348,9 +6349,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>